--- a/Test Contextsize/dataframe-1600-3200-6400-14500.xlsx
+++ b/Test Contextsize/dataframe-1600-3200-6400-14500.xlsx
@@ -579,10 +579,10 @@
         <v>3226</v>
       </c>
       <c r="I3" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -677,10 +677,10 @@
         <v>3234</v>
       </c>
       <c r="I5" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -775,10 +775,10 @@
         <v>3193</v>
       </c>
       <c r="I7" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
